--- a/Physics301Data.xlsx
+++ b/Physics301Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28220" windowHeight="16880"/>
+    <workbookView xWindow="10900" yWindow="0" windowWidth="32700" windowHeight="23920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fatty" sheetId="1" r:id="rId1"/>
@@ -316,8 +316,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -386,7 +390,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -415,6 +419,8 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -443,11 +449,436 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Input Voltage vs Muzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Velocity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0309368372297116"/>
+                  <c:y val="0.109090909090909"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(skinny!$A$8,skinny!$A$15,skinny!$A$22,skinny!$A$29,skinny!$A$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>430.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(skinny!$K$9,skinny!$K$16,skinny!$K$23,skinny!$K$30,skinny!$K$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.88818329489114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.57665947204577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.09511486002925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.68693441455105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.44264341832837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2113049608"/>
+        <c:axId val="-2112994344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2113049608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112994344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2112994344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Muzzle Velocity (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113049608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>skinny!$K$42:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.605170185988092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.010635294096256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.298317366548036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.703782474656201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.063785208687608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(skinny!$K$9,skinny!$K$16,skinny!$K$23,skinny!$K$30,skinny!$K$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.88818329489114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.57665947204577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.09511486002925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.68693441455105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.44264341832837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2110223672"/>
+        <c:axId val="-2109942904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2110223672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2109942904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2109942904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2110223672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1027,18 +1458,18 @@
         <v>7.9953919646062453E-5</v>
       </c>
       <c r="I10">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J10">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="K10">
         <f>(I10/G10)</f>
-        <v>16.34685452934718</v>
+        <v>17.000728710521063</v>
       </c>
       <c r="L10">
         <f>(K10*SQRT((J10/I10)^2+(H10/G10)^2))</f>
-        <v>0.86455821217925044</v>
+        <v>0.89836417112107514</v>
       </c>
       <c r="M10">
         <v>1.0279999999999999E-2</v>
@@ -1048,23 +1479,23 @@
       </c>
       <c r="O10">
         <f>(0.5*M10*K10*K10)</f>
-        <v>1.3735090164387012</v>
+        <v>1.4855873521800986</v>
       </c>
       <c r="P10">
         <f>(O10*0.5*SQRT(2*(L10/K10)^2 + (N10/M10)^2))</f>
-        <v>5.137044005581555E-2</v>
+        <v>5.5514300430497002E-2</v>
       </c>
       <c r="Q10">
         <f>(O10/C9)</f>
-        <v>3.981185554894786E-2</v>
+        <v>4.3060502961741992E-2</v>
       </c>
       <c r="R10">
         <f>(Q10*SQRT((P10/O10)^2 + (F9/C9)^2))</f>
-        <v>1.6215038937816167E-3</v>
+        <v>1.7525419520126458E-3</v>
       </c>
       <c r="S10">
         <f>(R10/Q10)</f>
-        <v>4.0729171535047168E-2</v>
+        <v>4.0699523495341623E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14">
@@ -1301,18 +1732,18 @@
         <v>3.2743589671826601E-5</v>
       </c>
       <c r="I17">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J17">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="K17">
         <f>(I17/G17)</f>
-        <v>23.372905109966108</v>
+        <v>24.307821314364752</v>
       </c>
       <c r="L17">
         <f>(K17*SQRT((J17/I17)^2+(H17/G17)^2))</f>
-        <v>0.73953213485948532</v>
+        <v>0.76725647227847826</v>
       </c>
       <c r="M17">
         <v>1.0279999999999999E-2</v>
@@ -1322,23 +1753,23 @@
       </c>
       <c r="O17">
         <f>(0.5*M17*K17*K17)</f>
-        <v>2.8079444434565257</v>
+        <v>3.0370727100425783</v>
       </c>
       <c r="P17">
         <f>(O17*0.5*SQRT(2*(L17/K17)^2 + (N17/M17)^2))</f>
-        <v>6.283772699135276E-2</v>
+        <v>6.7801267690222655E-2</v>
       </c>
       <c r="Q17">
         <f>(O17/C16)</f>
-        <v>3.6173197339214501E-2</v>
+        <v>3.9124930242094409E-2</v>
       </c>
       <c r="R17">
         <f>(Q17*SQRT((P17/O17)^2 + (F16/C16)^2))</f>
-        <v>9.9777680891866179E-4</v>
+        <v>1.0774818517629129E-3</v>
       </c>
       <c r="S17">
         <f>(R17/Q17)</f>
-        <v>2.7583318100470919E-2</v>
+        <v>2.7539521351111651E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14">
@@ -1575,18 +2006,18 @@
         <v>3.0528183211841108E-5</v>
       </c>
       <c r="I24">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J24">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="K24">
         <f>(I24/G24)</f>
-        <v>26.071227668816022</v>
+        <v>27.114076775568659</v>
       </c>
       <c r="L24">
         <f>(K24*SQRT((J24/I24)^2+(H24/G24)^2))</f>
-        <v>0.85581530896349856</v>
+        <v>0.8880515696888448</v>
       </c>
       <c r="M24">
         <v>1.0279999999999999E-2</v>
@@ -1596,23 +2027,23 @@
       </c>
       <c r="O24">
         <f>(0.5*M24*K24*K24)</f>
-        <v>3.4937038084984833</v>
+        <v>3.7787900392719584</v>
       </c>
       <c r="P24">
         <f>(O24*0.5*SQRT(2*(L24/K24)^2 + (N24/M24)^2))</f>
-        <v>8.1111975525839361E-2</v>
+        <v>8.753402174926217E-2</v>
       </c>
       <c r="Q24">
         <f>(O24/C23)</f>
-        <v>2.5316694264481764E-2</v>
+        <v>2.7382536516463468E-2</v>
       </c>
       <c r="R24">
         <f>(Q24*SQRT((P24/O24)^2 + (F23/C23)^2))</f>
-        <v>7.1563945531931351E-4</v>
+        <v>7.728654397920452E-4</v>
       </c>
       <c r="S24">
         <f>(R24/Q24)</f>
-        <v>2.8267492107898345E-2</v>
+        <v>2.8224757020861371E-2</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="14">
@@ -1849,18 +2280,18 @@
         <v>3.0342085536317035E-5</v>
       </c>
       <c r="I31">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="K31">
         <f>(I31/G31)</f>
-        <v>29.693877476307751</v>
+        <v>30.881632575360058</v>
       </c>
       <c r="L31">
         <f>(K31*SQRT((J31/I31)^2+(H31/G31)^2))</f>
-        <v>1.0961856451023146</v>
+        <v>1.1380117200714732</v>
       </c>
       <c r="M31">
         <v>1.0279999999999999E-2</v>
@@ -1870,23 +2301,23 @@
       </c>
       <c r="O31">
         <f>(0.5*M31*K31*K31)</f>
-        <v>4.5320734882308003</v>
+        <v>4.9018906848704331</v>
       </c>
       <c r="P31">
         <f>(O31*0.5*SQRT(2*(L31/K31)^2 + (N31/M31)^2))</f>
-        <v>0.11832445671445165</v>
+        <v>0.12775289503403103</v>
       </c>
       <c r="Q31">
         <f>(O31/C30)</f>
-        <v>1.4596049881580676E-2</v>
+        <v>1.5787087551917659E-2</v>
       </c>
       <c r="R31">
         <f>(Q31*SQRT((P31/O31)^2 + (F30/C30)^2))</f>
-        <v>4.4790614545013417E-4</v>
+        <v>4.8383388524606685E-4</v>
       </c>
       <c r="S31">
         <f>(R31/Q31)</f>
-        <v>3.0686805614124707E-2</v>
+        <v>3.0647444226487203E-2</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="14">
@@ -2127,18 +2558,18 @@
         <v>7.1980755813488454E-5</v>
       </c>
       <c r="I38">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J38">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="K38">
         <f>(I38/G38)</f>
-        <v>33.398838771081749</v>
+        <v>34.734792321925021</v>
       </c>
       <c r="L38">
         <f>(K38*SQRT((J38/I38)^2+(H38/G38)^2))</f>
-        <v>3.2228256579409669</v>
+        <v>3.350869545671185</v>
       </c>
       <c r="M38">
         <v>1.0279999999999999E-2</v>
@@ -2148,23 +2579,23 @@
       </c>
       <c r="O38">
         <f>(0.5*M38*K38*K38)</f>
-        <v>5.7335796966595067</v>
+        <v>6.2014397999069235</v>
       </c>
       <c r="P38">
         <f>(O38*0.5*SQRT(2*(L38/K38)^2 + (N38/M38)^2))</f>
-        <v>0.39122566242058304</v>
+        <v>0.42303995520477217</v>
       </c>
       <c r="Q38">
         <f>(O38/C37)</f>
-        <v>8.988140391844408E-3</v>
+        <v>9.7215726478189126E-3</v>
       </c>
       <c r="R38">
         <f>(Q38*SQRT((P38/O38)^2 + (F37/C37)^2))</f>
-        <v>6.3019188598802654E-4</v>
+        <v>6.8144815355717845E-4</v>
       </c>
       <c r="S38">
         <f>(R38/Q38)</f>
-        <v>7.0113711904171566E-2</v>
+        <v>7.0096493462923931E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2180,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S37"/>
+  <dimension ref="A3:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3333,9 +3764,40 @@
         <v>3.2759855936562401E-2</v>
       </c>
     </row>
+    <row r="42" spans="1:19">
+      <c r="K42">
+        <f>LN(A8)</f>
+        <v>4.6051701859880918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="K43">
+        <f>LN(A15)</f>
+        <v>5.0106352940962555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="K44">
+        <f>LN(A22)</f>
+        <v>5.2983173665480363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="K45">
+        <f>LN(A29)</f>
+        <v>5.7037824746562009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="K46">
+        <f>LN(A36)</f>
+        <v>6.0637852086876078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Physics301Data.xlsx
+++ b/Physics301Data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23416"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="0" windowWidth="32700" windowHeight="23920" activeTab="1"/>
+    <workbookView xWindow="10905" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fatty" sheetId="1" r:id="rId1"/>
     <sheet name="skinny" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -229,13 +229,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,11 +384,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -460,17 +460,580 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Muzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Velocity vs ln(Input Voltage)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3178696412948382E-2"/>
+                  <c:y val="-9.6183289588801391E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(fatty!$L$10,fatty!$L$17,fatty!$L$24,fatty!$L$31,fatty!$L$38)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.89836417112107514</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.76725647227847826</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.8880515696888448</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1380117200714732</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.350869545671185</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(fatty!$L$10,fatty!$L$17,fatty!$L$24,fatty!$L$31,fatty!$L$38)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.89836417112107514</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.76725647227847826</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.8880515696888448</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1380117200714732</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.350869545671185</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>fatty!$L$42:$L$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2842686123513866E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.156418102452755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2752417758477037E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6850762902330296E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.6470118911753958E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>fatty!$L$42:$L$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2842686123513866E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.156418102452755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2752417758477037E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6850762902330296E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.6470118911753958E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fatty!$K$42:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7037824746562009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0637852086876078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(fatty!$K$10,fatty!$K$17,fatty!$K$24,fatty!$K$31,fatty!$K$38)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.000728710521063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.307821314364752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.114076775568659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.881632575360058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.734792321925021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="94304512"/>
+        <c:axId val="94292224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94304512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94292224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94292224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Muzzle Velocity (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94304512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Efficiency vs ln(Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Voltage)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(fatty!$R$9,fatty!$R$16,fatty!$R$23,fatty!$R$30,fatty!$R$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.17525419520126459</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1077481851762913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.7286543979204522E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.8383388524606684E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.8144815355717842E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(fatty!$R$9,fatty!$R$16,fatty!$R$23,fatty!$R$30,fatty!$R$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.17525419520126459</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1077481851762913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.7286543979204522E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.8383388524606684E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.8144815355717842E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>fatty!$L$42:$L$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2842686123513866E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.156418102452755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2752417758477037E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6850762902330296E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.6470118911753958E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>fatty!$L$42:$L$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2842686123513866E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.156418102452755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2752417758477037E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6850762902330296E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.6470118911753958E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fatty!$K$42:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7037824746562009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0637852086876078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(fatty!$Q$9,fatty!$Q$16,fatty!$Q$23,fatty!$Q$30,fatty!$Q$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3060502961741989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9124930242094411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7382536516463469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.578708755191766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97215726478189124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="85382272"/>
+        <c:axId val="107511168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85382272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(Input Voltage)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107511168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107511168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Efficiency </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85382272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -494,14 +1057,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -517,8 +1077,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0309368372297116"/>
-                  <c:y val="0.109090909090909"/>
+                  <c:x val="3.0936837229711599E-2"/>
+                  <c:y val="0.10909090909090902"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -531,19 +1091,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>430.0</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,43 +1115,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.88818329489114</c:v>
+                  <c:v>18.888183294891142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.57665947204577</c:v>
+                  <c:v>24.576659472045773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.09511486002925</c:v>
+                  <c:v>28.095114860029248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.68693441455105</c:v>
+                  <c:v>32.686934414551054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.44264341832837</c:v>
+                  <c:v>36.442643418328373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2113049608"/>
-        <c:axId val="-2112994344"/>
+        <c:dLbls/>
+        <c:axId val="79608064"/>
+        <c:axId val="80957824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2113049608"/>
+        <c:axId val="79608064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -611,22 +1161,19 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112994344"/>
+        <c:crossAx val="80957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112994344"/>
+        <c:axId val="80957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -646,49 +1193,58 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113049608"/>
+        <c:crossAx val="79608064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="18"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ln(Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Voltage) vs Muzzle Velocity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -702,7 +1258,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4178913556383069E-2"/>
+                  <c:y val="-2.7998471594863468E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -713,19 +1274,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.605170185988092</c:v>
+                  <c:v>4.6051701859880918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.010635294096256</c:v>
+                  <c:v>5.0106352940962555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.298317366548036</c:v>
+                  <c:v>5.2983173665480363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.703782474656201</c:v>
+                  <c:v>5.7037824746562009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.063785208687608</c:v>
+                  <c:v>6.0637852086876078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,86 +1298,345 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.88818329489114</c:v>
+                  <c:v>18.888183294891142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.57665947204577</c:v>
+                  <c:v>24.576659472045773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.09511486002925</c:v>
+                  <c:v>28.095114860029248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.68693441455105</c:v>
+                  <c:v>32.686934414551054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.44264341832837</c:v>
+                  <c:v>36.442643418328373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2110223672"/>
-        <c:axId val="-2109942904"/>
+        <c:dLbls/>
+        <c:axId val="80999552"/>
+        <c:axId val="81001088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110223672"/>
+        <c:axId val="80999552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109942904"/>
+        <c:crossAx val="81001088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109942904"/>
+        <c:axId val="81001088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Muzzle Velocity (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110223672"/>
+        <c:crossAx val="80999552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. ln(Input Voltage)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(skinny!$A$4,skinny!$A$11,skinny!$A$18,skinny!$A$25,skinny!$A$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(skinny!$Q$8,skinny!$Q$15,skinny!$Q$22,skinny!$Q$29,skinny!$Q$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3152586273983209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9995138946694637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9399886681528509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7686825772962231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0701061400806267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="92984064"/>
+        <c:axId val="84528512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92984064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(Input Voltage)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84528512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="84528512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Percentage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92984064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -850,16 +1670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -873,6 +1693,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1165,26 +2015,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:19" ht="14">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +2047,7 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1241,7 +2091,7 @@
       </c>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" ht="14">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1263,11 +2113,11 @@
         <f>(C5*0.5*SQRT((E5/B5)^2+2*(D5/A5)^2))</f>
         <v>0.55633847610964315</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f>(0.025/K5)</f>
         <v>1.5723270440251573E-3</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="6"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="2">
@@ -1282,7 +2132,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" ht="14">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1304,11 +2154,11 @@
         <f t="shared" ref="F6:F9" si="2">(C6*0.5*SQRT((E6/B6)^2+2*(D6/A6)^2))</f>
         <v>0.55633847610964315</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f t="shared" ref="G6:G37" si="3">(0.025/K6)</f>
         <v>1.488095238095238E-3</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" s="2">
@@ -1323,7 +2173,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" ht="14">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1345,11 +2195,11 @@
         <f t="shared" si="2"/>
         <v>0.55633847610964315</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
         <v>1.5923566878980893E-3</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="6"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="2">
@@ -1364,7 +2214,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" ht="14">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1386,11 +2236,11 @@
         <f t="shared" si="2"/>
         <v>0.55633847610964315</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
         <v>1.586294416243655E-3</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="6"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="2">
@@ -1405,7 +2255,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" ht="14">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1427,11 +2277,11 @@
         <f t="shared" si="2"/>
         <v>0.55633847610964315</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
         <v>1.4076576576576576E-3</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="6"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="2">
@@ -1442,18 +2292,24 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
+      <c r="Q9">
+        <f>(100*Q10)</f>
+        <v>4.3060502961741989</v>
+      </c>
+      <c r="R9">
+        <f>(100*R10)</f>
+        <v>0.17525419520126459</v>
+      </c>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" ht="14">
+    <row r="10" spans="1:19">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f>AVERAGE(G5:G9)</f>
         <v>1.5293462087839593E-3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <f>STDEV(G5:G9)</f>
         <v>7.9953919646062453E-5</v>
       </c>
@@ -1498,11 +2354,11 @@
         <v>4.0699523495341623E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14">
+    <row r="11" spans="1:19">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1515,7 +2371,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" ht="14">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>150</v>
       </c>
@@ -1537,11 +2393,11 @@
         <f>(C12*0.5*SQRT((E12/B12)^2+2*(D12/A12)^2))</f>
         <v>1.2517615712466972</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>1.1230907457322552E-3</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="6"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" s="2">
@@ -1556,7 +2412,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" ht="14">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>150</v>
       </c>
@@ -1578,11 +2434,11 @@
         <f t="shared" ref="F13:F16" si="4">(C13*0.5*SQRT((E13/B13)^2+2*(D13/A13)^2))</f>
         <v>1.2517615712466972</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
         <v>1.0771219302024989E-3</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="6"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="2">
@@ -1597,7 +2453,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" ht="14">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>150</v>
       </c>
@@ -1619,11 +2475,11 @@
         <f t="shared" si="4"/>
         <v>1.2517615712466972</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
         <v>1.0412328196584756E-3</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="6"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="2">
@@ -1638,7 +2494,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" ht="14">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>150</v>
       </c>
@@ -1660,11 +2516,11 @@
         <f t="shared" si="4"/>
         <v>1.2517615712466972</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
         <v>1.0575296108291032E-3</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="6"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="2">
@@ -1679,7 +2535,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19" ht="14">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>150</v>
       </c>
@@ -1701,11 +2557,11 @@
         <f t="shared" si="4"/>
         <v>1.2517615712466972</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>1.0490977759127153E-3</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="6"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="2">
@@ -1716,18 +2572,24 @@
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
+      <c r="Q16">
+        <f>(100*Q17)</f>
+        <v>3.9124930242094411</v>
+      </c>
+      <c r="R16">
+        <f>(100*R17)</f>
+        <v>0.1077481851762913</v>
+      </c>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" ht="14">
+    <row r="17" spans="1:19">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f>AVERAGE(G12:G16)</f>
         <v>1.0696145764670095E-3</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <f>STDEV(G12:G16)</f>
         <v>3.2743589671826601E-5</v>
       </c>
@@ -1772,11 +2634,11 @@
         <v>2.7539521351111651E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="14">
+    <row r="18" spans="1:19">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1789,7 +2651,7 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19" ht="14">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>200</v>
       </c>
@@ -1811,11 +2673,11 @@
         <f>(C19*0.5*SQRT((E19/B19)^2+2*(D19/A19)^2))</f>
         <v>2.2253539044385726</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
         <v>9.3283582089552237E-4</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="6"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="2">
@@ -1830,7 +2692,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" ht="14">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>200</v>
       </c>
@@ -1852,11 +2714,11 @@
         <f t="shared" ref="F20:F23" si="5">(C20*0.5*SQRT((E20/B20)^2+2*(D20/A20)^2))</f>
         <v>2.2253539044385726</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>1.0040160642570282E-3</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="6"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="2">
@@ -1871,7 +2733,7 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="1:19" ht="14">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>200</v>
       </c>
@@ -1893,11 +2755,11 @@
         <f t="shared" si="5"/>
         <v>2.2253539044385726</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>9.7694411879640499E-4</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="6"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="2">
@@ -1912,7 +2774,7 @@
       <c r="R21"/>
       <c r="S21"/>
     </row>
-    <row r="22" spans="1:19" ht="14">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>200</v>
       </c>
@@ -1934,11 +2796,11 @@
         <f t="shared" si="5"/>
         <v>2.2253539044385726</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>9.4126506024096396E-4</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="6"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="2">
@@ -1953,7 +2815,7 @@
       <c r="R22"/>
       <c r="S22"/>
     </row>
-    <row r="23" spans="1:19" ht="14">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>200</v>
       </c>
@@ -1975,11 +2837,11 @@
         <f t="shared" si="5"/>
         <v>2.2253539044385726</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>9.3949642991356639E-4</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="6"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="2">
@@ -1990,18 +2852,24 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="Q23">
+        <f>(100*Q24)</f>
+        <v>2.7382536516463469</v>
+      </c>
+      <c r="R23">
+        <f>(100*R24)</f>
+        <v>7.7286543979204522E-2</v>
+      </c>
       <c r="S23"/>
     </row>
-    <row r="24" spans="1:19" ht="14">
+    <row r="24" spans="1:19">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <f>AVERAGE(G19:G23)</f>
         <v>9.5891149882069721E-4</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <f>STDEV(G19:G23)</f>
         <v>3.0528183211841108E-5</v>
       </c>
@@ -2046,11 +2914,11 @@
         <v>2.8224757020861371E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14">
+    <row r="25" spans="1:19">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2063,7 +2931,7 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="1:19" ht="14">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>300</v>
       </c>
@@ -2085,11 +2953,11 @@
         <f>(C26*0.5*SQRT((E26/B26)^2+2*(D26/A26)^2))</f>
         <v>5.0070462849867887</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>7.9038887132469181E-4</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="6"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="2">
@@ -2104,7 +2972,7 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="1:19" ht="14">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>300</v>
       </c>
@@ -2126,11 +2994,11 @@
         <f t="shared" ref="F27:F30" si="6">(C27*0.5*SQRT((E27/B27)^2+2*(D27/A27)^2))</f>
         <v>5.0070462849867887</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>8.5969738651994504E-4</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="6"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="2">
@@ -2145,7 +3013,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:19" ht="14">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>300</v>
       </c>
@@ -2167,11 +3035,11 @@
         <f t="shared" si="6"/>
         <v>5.0070462849867887</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>8.6147484493452793E-4</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="6"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="2">
@@ -2186,7 +3054,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:19" ht="14">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>300</v>
       </c>
@@ -2208,11 +3076,11 @@
         <f t="shared" si="6"/>
         <v>5.0070462849867887</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>8.3836351441985248E-4</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="6"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="2">
@@ -2227,7 +3095,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:19" ht="14">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>300</v>
       </c>
@@ -2249,11 +3117,11 @@
         <f t="shared" si="6"/>
         <v>5.0070462849867887</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
         <v>8.5969738651994504E-4</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="6"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="2">
@@ -2264,18 +3132,24 @@
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
+      <c r="Q30">
+        <f>(100*Q31)</f>
+        <v>1.578708755191766</v>
+      </c>
+      <c r="R30">
+        <f>(100*R31)</f>
+        <v>4.8383388524606684E-2</v>
+      </c>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:19" ht="14">
+    <row r="31" spans="1:19">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <f>AVERAGE(G26:G30)</f>
         <v>8.419244007437925E-4</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <f>STDEV(G26:G30)</f>
         <v>3.0342085536317035E-5</v>
       </c>
@@ -2320,11 +3194,11 @@
         <v>3.0647444226487203E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14">
+    <row r="32" spans="1:19">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2337,7 +3211,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:19" ht="14">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>430</v>
       </c>
@@ -2359,11 +3233,11 @@
         <f>(C33*0.5*SQRT((E33/B33)^2+2*(D33/A33)^2))</f>
         <v>10.286698423267302</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
         <v>8.1539465101108943E-4</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="6"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="2">
@@ -2378,7 +3252,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19" ht="14">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>430</v>
       </c>
@@ -2400,11 +3274,11 @@
         <f t="shared" ref="F34:F37" si="7">(C34*0.5*SQRT((E34/B34)^2+2*(D34/A34)^2))</f>
         <v>10.286698423267302</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
         <v>6.2988158226253473E-4</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="6"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="2">
@@ -2419,7 +3293,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" ht="14">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>430</v>
       </c>
@@ -2441,11 +3315,11 @@
         <f t="shared" si="7"/>
         <v>10.286698423267302</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
         <v>7.6852136489394404E-4</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="6"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="2">
@@ -2460,7 +3334,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" ht="14">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>430</v>
       </c>
@@ -2482,11 +3356,11 @@
         <f t="shared" si="7"/>
         <v>10.286698423267302</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="5">
         <f t="shared" si="3"/>
         <v>7.3920756948551156E-4</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="6"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="2">
@@ -2501,7 +3375,7 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" ht="14">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>430</v>
       </c>
@@ -2523,11 +3397,11 @@
         <f t="shared" si="7"/>
         <v>10.286698423267302</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
         <v>7.896399241945673E-4</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="6"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="2">
@@ -2538,22 +3412,28 @@
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
+      <c r="Q37">
+        <f>(100*Q38)</f>
+        <v>0.97215726478189124</v>
+      </c>
+      <c r="R37">
+        <f>(100*R38)</f>
+        <v>6.8144815355717842E-2</v>
+      </c>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" ht="14">
+    <row r="38" spans="1:19">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="7">
+      <c r="G38" s="5">
         <f>AVERAGE(G33:G37)</f>
         <v>7.4852901836952937E-4</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="6">
         <f>STDEV(G33:G37)</f>
         <v>7.1980755813488454E-5</v>
       </c>
@@ -2596,1172 +3476,6 @@
       <c r="S38">
         <f>(R38/Q38)</f>
         <v>7.0096493462923931E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f>(0.5*B4*A4*A4)</f>
-        <v>34.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>(0.01*A4)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F4" s="2">
-        <f>(C4*0.5*SQRT((E4/B4)^2+2*(D4/A4)^2))</f>
-        <v>0.55633847610964315</v>
-      </c>
-      <c r="G4" s="7">
-        <f>(0.025/K4)</f>
-        <v>1.3819789939192924E-3</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="K4">
-        <v>18.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C36" si="0">(0.5*B5*A5*A5)</f>
-        <v>34.5</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D36" si="1">(0.01*A5)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F8" si="2">(C5*0.5*SQRT((E5/B5)^2+2*(D5/A5)^2))</f>
-        <v>0.55633847610964315</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G36" si="3">(0.025/K5)</f>
-        <v>1.2512512512512512E-3</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="K5">
-        <v>19.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.55633847610964315</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2400793650793652E-3</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="K6">
-        <v>20.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.55633847610964315</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2860082304526749E-3</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="K7">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.55633847610964315</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="3"/>
-        <v>1.4585764294049008E-3</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="K8">
-        <v>17.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7">
-        <f>AVERAGE(G4:G8)</f>
-        <v>1.3235788540214969E-3</v>
-      </c>
-      <c r="H9" s="8">
-        <f>STDEV(G4:G8)</f>
-        <v>9.3874810560285086E-5</v>
-      </c>
-      <c r="I9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K9">
-        <f>(I9/G9)</f>
-        <v>18.888183294891142</v>
-      </c>
-      <c r="L9">
-        <f>(K9*SQRT((J9/I9)^2+(H9/G9)^2))</f>
-        <v>1.3481391727789143</v>
-      </c>
-      <c r="M9">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="N9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O9">
-        <f>(0.5*M9*K9*K9)</f>
-        <v>1.8337642264524205</v>
-      </c>
-      <c r="P9">
-        <f>(O9*0.5*SQRT(2*(L9/K9)^2 + (N9/M9)^2))</f>
-        <v>9.2553576216983999E-2</v>
-      </c>
-      <c r="Q9">
-        <f>(O9/C8)</f>
-        <v>5.3152586273983206E-2</v>
-      </c>
-      <c r="R9">
-        <f>(Q9*SQRT((P9/O9)^2 + (F8/C8)^2))</f>
-        <v>2.8163113558167725E-3</v>
-      </c>
-      <c r="S9">
-        <f>(R9/Q9)</f>
-        <v>5.2985405852119048E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11">
-        <v>150</v>
-      </c>
-      <c r="B11">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>77.625</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F11" s="2">
-        <f>(C11*0.5*SQRT((E11/B11)^2+2*(D11/A11)^2))</f>
-        <v>1.2517615712466972</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0229132569558102E-3</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="K11">
-        <v>24.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
-        <v>150</v>
-      </c>
-      <c r="B12">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>77.625</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F15" si="4">(C12*0.5*SQRT((E12/B12)^2+2*(D12/A12)^2))</f>
-        <v>1.2517615712466972</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1870845204178539E-3</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="K12">
-        <v>21.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
-        <v>150</v>
-      </c>
-      <c r="B13">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>77.625</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2517615712466972</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="3"/>
-        <v>9.8502758077226174E-4</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="K13">
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14">
-        <v>150</v>
-      </c>
-      <c r="B14">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>77.625</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2517615712466972</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="3"/>
-        <v>9.4912680334092645E-4</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="K14">
-        <v>26.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>150</v>
-      </c>
-      <c r="B15">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>77.625</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2517615712466972</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="3"/>
-        <v>9.4197437829691044E-4</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="K15">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7">
-        <f>AVERAGE(G11:G15)</f>
-        <v>1.0172253079567526E-3</v>
-      </c>
-      <c r="H16" s="8">
-        <f>STDEV(G11:G15)</f>
-        <v>1.0027625242692128E-4</v>
-      </c>
-      <c r="I16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K16">
-        <f>(I16/G16)</f>
-        <v>24.576659472045773</v>
-      </c>
-      <c r="L16">
-        <f>(K16*SQRT((J16/I16)^2+(H16/G16)^2))</f>
-        <v>2.4306880247289926</v>
-      </c>
-      <c r="M16">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="N16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O16">
-        <f>(0.5*M16*K16*K16)</f>
-        <v>3.1046226607371712</v>
-      </c>
-      <c r="P16">
-        <f>(O16*0.5*SQRT(2*(L16/K16)^2 + (N16/M16)^2))</f>
-        <v>0.21712543302937126</v>
-      </c>
-      <c r="Q16">
-        <f>(O16/C15)</f>
-        <v>3.9995138946694639E-2</v>
-      </c>
-      <c r="R16">
-        <f>(Q16*SQRT((P16/O16)^2 + (F15/C15)^2))</f>
-        <v>2.8705000361534333E-3</v>
-      </c>
-      <c r="S16">
-        <f>(R16/Q16)</f>
-        <v>7.1771222997355361E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18">
-        <v>200</v>
-      </c>
-      <c r="B18">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F18" s="2">
-        <f>(C18*0.5*SQRT((E18/B18)^2+2*(D18/A18)^2))</f>
-        <v>2.2253539044385726</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="3"/>
-        <v>8.5005100306018361E-4</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="K18">
-        <v>29.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19">
-        <v>200</v>
-      </c>
-      <c r="B19">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19:F22" si="5">(C19*0.5*SQRT((E19/B19)^2+2*(D19/A19)^2))</f>
-        <v>2.2253539044385726</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="3"/>
-        <v>9.4410876132930519E-4</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="K19">
-        <v>26.48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="5"/>
-        <v>2.2253539044385726</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="3"/>
-        <v>8.7904360056258787E-4</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="K20">
-        <v>28.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="5"/>
-        <v>2.2253539044385726</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="3"/>
-        <v>8.8183421516754845E-4</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="K21">
-        <v>28.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22">
-        <v>200</v>
-      </c>
-      <c r="B22">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="5"/>
-        <v>2.2253539044385726</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="3"/>
-        <v>8.9413447782546495E-4</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="K22">
-        <v>27.96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7">
-        <f>AVERAGE(G18:G22)</f>
-        <v>8.8983441158901801E-4</v>
-      </c>
-      <c r="H23" s="8">
-        <f>STDEV(G18:G22)</f>
-        <v>3.4377899691993967E-5</v>
-      </c>
-      <c r="I23">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J23">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K23">
-        <f>(I23/G23)</f>
-        <v>28.095114860029248</v>
-      </c>
-      <c r="L23">
-        <f>(K23*SQRT((J23/I23)^2+(H23/G23)^2))</f>
-        <v>1.1084543561126741</v>
-      </c>
-      <c r="M23">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="N23">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O23">
-        <f>(0.5*M23*K23*K23)</f>
-        <v>4.0571843620509345</v>
-      </c>
-      <c r="P23">
-        <f>(O23*0.5*SQRT(2*(L23/K23)^2 + (N23/M23)^2))</f>
-        <v>0.11320425230035515</v>
-      </c>
-      <c r="Q23">
-        <f>(O23/C22)</f>
-        <v>2.9399886681528511E-2</v>
-      </c>
-      <c r="R23">
-        <f>(Q23*SQRT((P23/O23)^2 + (F22/C22)^2))</f>
-        <v>9.4746628519112733E-4</v>
-      </c>
-      <c r="S23">
-        <f>(R23/Q23)</f>
-        <v>3.2226868608524452E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25">
-        <v>300</v>
-      </c>
-      <c r="B25">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F25" s="2">
-        <f>(C25*0.5*SQRT((E25/B25)^2+2*(D25/A25)^2))</f>
-        <v>5.0070462849867887</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="3"/>
-        <v>8.080155138978669E-4</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="K25">
-        <v>30.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26">
-        <v>300</v>
-      </c>
-      <c r="B26">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" ref="F26:F29" si="6">(C26*0.5*SQRT((E26/B26)^2+2*(D26/A26)^2))</f>
-        <v>5.0070462849867887</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="3"/>
-        <v>7.320644216691069E-4</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="K26">
-        <v>34.15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27">
-        <v>300</v>
-      </c>
-      <c r="B27">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="6"/>
-        <v>5.0070462849867887</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="3"/>
-        <v>7.8320802005012527E-4</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="K27">
-        <v>31.92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28">
-        <v>300</v>
-      </c>
-      <c r="B28">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="6"/>
-        <v>5.0070462849867887</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="3"/>
-        <v>7.3399882560187899E-4</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="K28">
-        <v>34.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29">
-        <v>300</v>
-      </c>
-      <c r="B29">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="6"/>
-        <v>5.0070462849867887</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="3"/>
-        <v>7.668711656441718E-4</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="K29">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="7">
-        <f>AVERAGE(G25:G29)</f>
-        <v>7.6483158937263001E-4</v>
-      </c>
-      <c r="H30" s="8">
-        <f>STDEV(G25:G29)</f>
-        <v>3.2523264804856713E-5</v>
-      </c>
-      <c r="I30">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J30">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K30">
-        <f>(I30/G30)</f>
-        <v>32.686934414551054</v>
-      </c>
-      <c r="L30">
-        <f>(K30*SQRT((J30/I30)^2+(H30/G30)^2))</f>
-        <v>1.4143445585821208</v>
-      </c>
-      <c r="M30">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="N30">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O30">
-        <f>(0.5*M30*K30*K30)</f>
-        <v>5.4917594025047727</v>
-      </c>
-      <c r="P30">
-        <f>(O30*0.5*SQRT(2*(L30/K30)^2 + (N30/M30)^2))</f>
-        <v>0.16804763505109388</v>
-      </c>
-      <c r="Q30">
-        <f>(O30/C29)</f>
-        <v>1.7686825772962232E-2</v>
-      </c>
-      <c r="R30">
-        <f>(Q30*SQRT((P30/O30)^2 + (F29/C29)^2))</f>
-        <v>6.1176929146881682E-4</v>
-      </c>
-      <c r="S30">
-        <f>(R30/Q30)</f>
-        <v>3.4588981613875885E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32">
-        <v>430</v>
-      </c>
-      <c r="B32">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>637.90499999999997</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F32" s="2">
-        <f>(C32*0.5*SQRT((E32/B32)^2+2*(D32/A32)^2))</f>
-        <v>10.286698423267302</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="3"/>
-        <v>6.5496463190987692E-4</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="K32">
-        <v>38.17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33">
-        <v>430</v>
-      </c>
-      <c r="B33">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>637.90499999999997</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" ref="F33:F36" si="7">(C33*0.5*SQRT((E33/B33)^2+2*(D33/A33)^2))</f>
-        <v>10.286698423267302</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="3"/>
-        <v>7.1489848441521307E-4</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="K33">
-        <v>34.97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34">
-        <v>430</v>
-      </c>
-      <c r="B34">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>637.90499999999997</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="7"/>
-        <v>10.286698423267302</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="3"/>
-        <v>6.7604110329908072E-4</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="K34">
-        <v>36.979999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35">
-        <v>430</v>
-      </c>
-      <c r="B35">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>637.90499999999997</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="7"/>
-        <v>10.286698423267302</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="3"/>
-        <v>6.7006164567140177E-4</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="K35">
-        <v>37.31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36">
-        <v>430</v>
-      </c>
-      <c r="B36">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="0"/>
-        <v>637.90499999999997</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="7"/>
-        <v>10.286698423267302</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="3"/>
-        <v>7.1408169094544429E-4</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="K36">
-        <v>35.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="G37" s="7">
-        <f>AVERAGE(G32:G36)</f>
-        <v>6.8600951124820329E-4</v>
-      </c>
-      <c r="H37" s="8">
-        <f>STDEV(G32:G36)</f>
-        <v>2.7111382066511775E-5</v>
-      </c>
-      <c r="I37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J37">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K37">
-        <f>(I37/G37)</f>
-        <v>36.442643418328373</v>
-      </c>
-      <c r="L37">
-        <f>(K37*SQRT((J37/I37)^2+(H37/G37)^2))</f>
-        <v>1.4694401274743194</v>
-      </c>
-      <c r="M37">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="N37">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O37">
-        <f>(0.5*M37*K37*K37)</f>
-        <v>6.8262605728813215</v>
-      </c>
-      <c r="P37">
-        <f>(O37*0.5*SQRT(2*(L37/K37)^2 + (N37/M37)^2))</f>
-        <v>0.1946583643345591</v>
-      </c>
-      <c r="Q37">
-        <f>(O37/C36)</f>
-        <v>1.0701061400806266E-2</v>
-      </c>
-      <c r="R37">
-        <f>(Q37*SQRT((P37/O37)^2 + (F36/C36)^2))</f>
-        <v>3.505652298587219E-4</v>
-      </c>
-      <c r="S37">
-        <f>(R37/Q37)</f>
-        <v>3.2759855936562401E-2</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3769,29 +3483,49 @@
         <f>LN(A8)</f>
         <v>4.6051701859880918</v>
       </c>
+      <c r="L42" s="2">
+        <f>(L10/K10)</f>
+        <v>5.2842686123513866E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:19">
       <c r="K43">
         <f>LN(A15)</f>
         <v>5.0106352940962555</v>
       </c>
+      <c r="L43" s="2">
+        <f>(L17/K17)</f>
+        <v>3.156418102452755E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:19">
       <c r="K44">
         <f>LN(A22)</f>
         <v>5.2983173665480363</v>
       </c>
+      <c r="L44" s="2">
+        <f>(L24/K24)</f>
+        <v>3.2752417758477037E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:19">
       <c r="K45">
         <f>LN(A29)</f>
         <v>5.7037824746562009</v>
       </c>
+      <c r="L45" s="2">
+        <f>(L31/K31)</f>
+        <v>3.6850762902330296E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:19">
       <c r="K46">
         <f>LN(A36)</f>
         <v>6.0637852086876078</v>
+      </c>
+      <c r="L46" s="2">
+        <f>(L38/K38)</f>
+        <v>9.6470118911753958E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3806,44 +3540,1302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:S46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <f>(0.5*B4*A4*A4)</f>
+        <v>34.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(0.01*A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(C4*0.5*SQRT((E4/B4)^2+2*(D4/A4)^2))</f>
+        <v>0.55633847610964315</v>
+      </c>
+      <c r="G4" s="5">
+        <f>(0.025/K4)</f>
+        <v>1.3819789939192924E-3</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="K4">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C36" si="0">(0.5*B5*A5*A5)</f>
+        <v>34.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D36" si="1">(0.01*A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F8" si="2">(C5*0.5*SQRT((E5/B5)^2+2*(D5/A5)^2))</f>
+        <v>0.55633847610964315</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G36" si="3">(0.025/K5)</f>
+        <v>1.2512512512512512E-3</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="K5">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55633847610964315</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2400793650793652E-3</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="K6">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55633847610964315</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2860082304526749E-3</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="K7">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55633847610964315</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4585764294049008E-3</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="K8">
+        <v>17.14</v>
+      </c>
+      <c r="Q8">
+        <f>(100*Q9)</f>
+        <v>5.3152586273983209</v>
+      </c>
+      <c r="R8">
+        <f>(100*R9)</f>
+        <v>0.28163113558167724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5">
+        <f>AVERAGE(G4:G8)</f>
+        <v>1.3235788540214969E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <f>STDEV(G4:G8)</f>
+        <v>9.3874810560285086E-5</v>
+      </c>
+      <c r="I9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K9">
+        <f>(I9/G9)</f>
+        <v>18.888183294891142</v>
+      </c>
+      <c r="L9">
+        <f>(K9*SQRT((J9/I9)^2+(H9/G9)^2))</f>
+        <v>1.3481391727789143</v>
+      </c>
+      <c r="M9">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O9">
+        <f>(0.5*M9*K9*K9)</f>
+        <v>1.8337642264524205</v>
+      </c>
+      <c r="P9">
+        <f>(O9*0.5*SQRT(2*(L9/K9)^2 + (N9/M9)^2))</f>
+        <v>9.2553576216983999E-2</v>
+      </c>
+      <c r="Q9">
+        <f>(O9/C8)</f>
+        <v>5.3152586273983206E-2</v>
+      </c>
+      <c r="R9">
+        <f>(Q9*SQRT((P9/O9)^2 + (F8/C8)^2))</f>
+        <v>2.8163113558167725E-3</v>
+      </c>
+      <c r="S9">
+        <f>(R9/Q9)</f>
+        <v>5.2985405852119048E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>77.625</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F11" s="2">
+        <f>(C11*0.5*SQRT((E11/B11)^2+2*(D11/A11)^2))</f>
+        <v>1.2517615712466972</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0229132569558102E-3</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="K11">
+        <v>24.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>77.625</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F15" si="4">(C12*0.5*SQRT((E12/B12)^2+2*(D12/A12)^2))</f>
+        <v>1.2517615712466972</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1870845204178539E-3</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="K12">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>77.625</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2517615712466972</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>9.8502758077226174E-4</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="K13">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>77.625</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2517615712466972</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4912680334092645E-4</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="K14">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>77.625</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2517615712466972</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4197437829691044E-4</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="K15">
+        <v>26.54</v>
+      </c>
+      <c r="Q15">
+        <f>(100*Q16)</f>
+        <v>3.9995138946694637</v>
+      </c>
+      <c r="R15">
+        <f>(100*R16)</f>
+        <v>0.28705000361534333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5">
+        <f>AVERAGE(G11:G15)</f>
+        <v>1.0172253079567526E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <f>STDEV(G11:G15)</f>
+        <v>1.0027625242692128E-4</v>
+      </c>
+      <c r="I16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K16">
+        <f>(I16/G16)</f>
+        <v>24.576659472045773</v>
+      </c>
+      <c r="L16">
+        <f>(K16*SQRT((J16/I16)^2+(H16/G16)^2))</f>
+        <v>2.4306880247289926</v>
+      </c>
+      <c r="M16">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O16">
+        <f>(0.5*M16*K16*K16)</f>
+        <v>3.1046226607371712</v>
+      </c>
+      <c r="P16">
+        <f>(O16*0.5*SQRT(2*(L16/K16)^2 + (N16/M16)^2))</f>
+        <v>0.21712543302937126</v>
+      </c>
+      <c r="Q16">
+        <f>(O16/C15)</f>
+        <v>3.9995138946694639E-2</v>
+      </c>
+      <c r="R16">
+        <f>(Q16*SQRT((P16/O16)^2 + (F15/C15)^2))</f>
+        <v>2.8705000361534333E-3</v>
+      </c>
+      <c r="S16">
+        <f>(R16/Q16)</f>
+        <v>7.1771222997355361E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F18" s="2">
+        <f>(C18*0.5*SQRT((E18/B18)^2+2*(D18/A18)^2))</f>
+        <v>2.2253539044385726</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>8.5005100306018361E-4</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="K18">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F22" si="5">(C19*0.5*SQRT((E19/B19)^2+2*(D19/A19)^2))</f>
+        <v>2.2253539044385726</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4410876132930519E-4</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="K19">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2253539044385726</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>8.7904360056258787E-4</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="K20">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2253539044385726</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>8.8183421516754845E-4</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="K21">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2253539044385726</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>8.9413447782546495E-4</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="K22">
+        <v>27.96</v>
+      </c>
+      <c r="Q22">
+        <f>(100*Q23)</f>
+        <v>2.9399886681528509</v>
+      </c>
+      <c r="R22">
+        <f>(100*R23)</f>
+        <v>9.4746628519112738E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="5">
+        <f>AVERAGE(G18:G22)</f>
+        <v>8.8983441158901801E-4</v>
+      </c>
+      <c r="H23" s="6">
+        <f>STDEV(G18:G22)</f>
+        <v>3.4377899691993967E-5</v>
+      </c>
+      <c r="I23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K23">
+        <f>(I23/G23)</f>
+        <v>28.095114860029248</v>
+      </c>
+      <c r="L23">
+        <f>(K23*SQRT((J23/I23)^2+(H23/G23)^2))</f>
+        <v>1.1084543561126741</v>
+      </c>
+      <c r="M23">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O23">
+        <f>(0.5*M23*K23*K23)</f>
+        <v>4.0571843620509345</v>
+      </c>
+      <c r="P23">
+        <f>(O23*0.5*SQRT(2*(L23/K23)^2 + (N23/M23)^2))</f>
+        <v>0.11320425230035515</v>
+      </c>
+      <c r="Q23">
+        <f>(O23/C22)</f>
+        <v>2.9399886681528511E-2</v>
+      </c>
+      <c r="R23">
+        <f>(Q23*SQRT((P23/O23)^2 + (F22/C22)^2))</f>
+        <v>9.4746628519112733E-4</v>
+      </c>
+      <c r="S23">
+        <f>(R23/Q23)</f>
+        <v>3.2226868608524452E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f>(C25*0.5*SQRT((E25/B25)^2+2*(D25/A25)^2))</f>
+        <v>5.0070462849867887</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>8.080155138978669E-4</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="K25">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:F29" si="6">(C26*0.5*SQRT((E26/B26)^2+2*(D26/A26)^2))</f>
+        <v>5.0070462849867887</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="3"/>
+        <v>7.320644216691069E-4</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="K26">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="6"/>
+        <v>5.0070462849867887</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="3"/>
+        <v>7.8320802005012527E-4</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="K27">
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="6"/>
+        <v>5.0070462849867887</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="3"/>
+        <v>7.3399882560187899E-4</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="K28">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>300</v>
+      </c>
+      <c r="B29">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="6"/>
+        <v>5.0070462849867887</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="3"/>
+        <v>7.668711656441718E-4</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="K29">
+        <v>32.6</v>
+      </c>
+      <c r="Q29">
+        <f>(100*Q30)</f>
+        <v>1.7686825772962231</v>
+      </c>
+      <c r="R29">
+        <f>(100*R30)</f>
+        <v>6.1176929146881678E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="5">
+        <f>AVERAGE(G25:G29)</f>
+        <v>7.6483158937263001E-4</v>
+      </c>
+      <c r="H30" s="6">
+        <f>STDEV(G25:G29)</f>
+        <v>3.2523264804856713E-5</v>
+      </c>
+      <c r="I30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K30">
+        <f>(I30/G30)</f>
+        <v>32.686934414551054</v>
+      </c>
+      <c r="L30">
+        <f>(K30*SQRT((J30/I30)^2+(H30/G30)^2))</f>
+        <v>1.4143445585821208</v>
+      </c>
+      <c r="M30">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O30">
+        <f>(0.5*M30*K30*K30)</f>
+        <v>5.4917594025047727</v>
+      </c>
+      <c r="P30">
+        <f>(O30*0.5*SQRT(2*(L30/K30)^2 + (N30/M30)^2))</f>
+        <v>0.16804763505109388</v>
+      </c>
+      <c r="Q30">
+        <f>(O30/C29)</f>
+        <v>1.7686825772962232E-2</v>
+      </c>
+      <c r="R30">
+        <f>(Q30*SQRT((P30/O30)^2 + (F29/C29)^2))</f>
+        <v>6.1176929146881682E-4</v>
+      </c>
+      <c r="S30">
+        <f>(R30/Q30)</f>
+        <v>3.4588981613875885E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>430</v>
+      </c>
+      <c r="B32">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>637.90499999999997</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F32" s="2">
+        <f>(C32*0.5*SQRT((E32/B32)^2+2*(D32/A32)^2))</f>
+        <v>10.286698423267302</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="3"/>
+        <v>6.5496463190987692E-4</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="K32">
+        <v>38.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>430</v>
+      </c>
+      <c r="B33">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>637.90499999999997</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:F36" si="7">(C33*0.5*SQRT((E33/B33)^2+2*(D33/A33)^2))</f>
+        <v>10.286698423267302</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1489848441521307E-4</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="K33">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>430</v>
+      </c>
+      <c r="B34">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>637.90499999999997</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="7"/>
+        <v>10.286698423267302</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7604110329908072E-4</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="K34">
+        <v>36.979999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>430</v>
+      </c>
+      <c r="B35">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>637.90499999999997</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="7"/>
+        <v>10.286698423267302</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7006164567140177E-4</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="K35">
+        <v>37.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>430</v>
+      </c>
+      <c r="B36">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>637.90499999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="7"/>
+        <v>10.286698423267302</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1408169094544429E-4</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="K36">
+        <v>35.01</v>
+      </c>
+      <c r="Q36">
+        <f>(100*Q37)</f>
+        <v>1.0701061400806267</v>
+      </c>
+      <c r="R36">
+        <f>(100*R37)</f>
+        <v>3.5056522985872189E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="G37" s="5">
+        <f>AVERAGE(G32:G36)</f>
+        <v>6.8600951124820329E-4</v>
+      </c>
+      <c r="H37" s="6">
+        <f>STDEV(G32:G36)</f>
+        <v>2.7111382066511775E-5</v>
+      </c>
+      <c r="I37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K37">
+        <f>(I37/G37)</f>
+        <v>36.442643418328373</v>
+      </c>
+      <c r="L37">
+        <f>(K37*SQRT((J37/I37)^2+(H37/G37)^2))</f>
+        <v>1.4694401274743194</v>
+      </c>
+      <c r="M37">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="N37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O37">
+        <f>(0.5*M37*K37*K37)</f>
+        <v>6.8262605728813215</v>
+      </c>
+      <c r="P37">
+        <f>(O37*0.5*SQRT(2*(L37/K37)^2 + (N37/M37)^2))</f>
+        <v>0.1946583643345591</v>
+      </c>
+      <c r="Q37">
+        <f>(O37/C36)</f>
+        <v>1.0701061400806266E-2</v>
+      </c>
+      <c r="R37">
+        <f>(Q37*SQRT((P37/O37)^2 + (F36/C36)^2))</f>
+        <v>3.505652298587219E-4</v>
+      </c>
+      <c r="S37">
+        <f>(R37/Q37)</f>
+        <v>3.2759855936562401E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="K42">
+        <f>LN(A8)</f>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="L42" s="2">
+        <f>(L9/K9)</f>
+        <v>7.1374740054728172E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="K43">
+        <f>LN(A15)</f>
+        <v>5.0106352940962555</v>
+      </c>
+      <c r="L43" s="2">
+        <f>(L16/K16)</f>
+        <v>9.8902294980069597E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="K44">
+        <f>LN(A22)</f>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="L44" s="2">
+        <f>(L23/K23)</f>
+        <v>3.9453633189792205E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="K45">
+        <f>LN(A29)</f>
+        <v>5.7037824746562009</v>
+      </c>
+      <c r="L45" s="2">
+        <f>(L30/K30)</f>
+        <v>4.3269415866435769E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="K46">
+        <f>LN(A36)</f>
+        <v>6.0637852086876078</v>
+      </c>
+      <c r="L46" s="2">
+        <f>L37/K37</f>
+        <v>4.0321996146286218E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="2"/>
-    <col min="9" max="9" width="11.1640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3853,13 +4845,13 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
